--- a/excel_anchoBanda.xlsx
+++ b/excel_anchoBanda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LANproy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{746B62D9-E153-4407-AFB7-E1BEC5D3C200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464279B6-02C0-428D-BFE5-7ACD5C501AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FF157483-CDBB-4475-8B97-F9AC9224C00A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="44">
   <si>
     <t>Correo</t>
   </si>
@@ -127,13 +127,55 @@
   </si>
   <si>
     <t>Navegación web</t>
+  </si>
+  <si>
+    <t>Entretenimiento</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Descarga de archivos</t>
+  </si>
+  <si>
+    <t>Streaming</t>
+  </si>
+  <si>
+    <t>Llamadas mediante apps</t>
+  </si>
+  <si>
+    <t>Cámaras IP</t>
+  </si>
+  <si>
+    <t>V.Total Kbps</t>
+  </si>
+  <si>
+    <t>VoIP</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Cantidad [Kbps]</t>
+  </si>
+  <si>
+    <t>Navegación Web</t>
+  </si>
+  <si>
+    <t>Llamadas por Mensajería</t>
+  </si>
+  <si>
+    <t>WiFi</t>
+  </si>
+  <si>
+    <t>Total a usar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,13 +191,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -222,27 +283,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -251,15 +314,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,7 +643,7 @@
   <dimension ref="B3:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,10 +837,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F585D46-B0E9-4A67-82FF-9874BCBB6983}">
-  <dimension ref="C3:H72"/>
+  <dimension ref="C3:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,322 +848,341 @@
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.21875" customWidth="1"/>
-    <col min="13" max="14" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
+      <c r="K4">
+        <f>20+20+20+10+15+15</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
-        <f>Calculos!C4*30/100</f>
-        <v>27</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="2">
+        <f>ROUND(0.2*Calculos!C4,0)</f>
+        <v>18</v>
+      </c>
+      <c r="E5" s="4">
         <v>0.25</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f>ROUNDUP(D5*E5,0)</f>
-        <v>7</v>
-      </c>
-      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
         <v>0.78</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f>F5*G5</f>
-        <v>5.46</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="3" t="s">
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
-        <v>50</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="2">
+        <f>ROUND(0.2*Calculos!C5,0)</f>
+        <v>35</v>
+      </c>
+      <c r="E6" s="4">
         <v>0.25</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" ref="F6:F16" si="0">ROUNDUP(D6*E6,0)</f>
+        <v>9</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ref="H6:H16" si="1">F6*G6</f>
+        <v>7.0200000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <f>ROUND(0.2*Calculos!C6,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <f>ROUND(0.2*Calculos!C7,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <f>ROUND(0.2*Calculos!C8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <f>ROUND(0.2*Calculos!C9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" ref="H6:H16" si="1">F6*G6</f>
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3">
-        <v>12</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D11" s="2">
+        <f>ROUND(0.2*Calculos!C10,0)</f>
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
         <v>0.25</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G11" s="2">
         <v>0.78</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>2.34</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
+    <row r="12" spans="3:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
+        <f>ROUND(0.2*Calculos!C11,0)</f>
+        <v>31</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E8" s="7">
+      <c r="G12" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <f>ROUND(0.2*Calculos!C12,0)</f>
+        <v>231</v>
+      </c>
+      <c r="E13" s="4">
         <v>0.25</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G8" s="3">
+        <v>58</v>
+      </c>
+      <c r="G13" s="2">
         <v>0.78</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H13" s="2">
         <f t="shared" si="1"/>
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6</v>
-      </c>
-      <c r="E9" s="7">
+        <v>45.24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <f>ROUND(0.2*Calculos!C13,0)</f>
+        <v>195</v>
+      </c>
+      <c r="E14" s="4">
         <v>0.25</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G9" s="3">
+        <v>49</v>
+      </c>
+      <c r="G14" s="2">
         <v>0.78</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H14" s="2">
         <f t="shared" si="1"/>
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4</v>
-      </c>
-      <c r="E10" s="7">
+        <v>38.22</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2">
+        <f>ROUND(0.2*Calculos!C14,0)</f>
+        <v>101</v>
+      </c>
+      <c r="E15" s="4">
         <v>0.15</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2">
         <v>0.78</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H15" s="2">
         <f t="shared" si="1"/>
+        <v>12.48</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2">
+        <f>ROUND(0.2*Calculos!C15,0)</f>
+        <v>90</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G16" s="2">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3">
-        <v>14</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="H16" s="2">
         <f t="shared" si="1"/>
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3">
-        <v>47</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="1"/>
-        <v>9.36</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="3">
-        <v>343</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="1"/>
-        <v>67.08</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3">
-        <v>191</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="1"/>
-        <v>37.44</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3">
-        <v>8</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="1"/>
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3">
-        <v>9</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.78</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="1"/>
-        <v>1.56</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f>SUM(D5:D16)</f>
-        <v>719</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
+        <v>731</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
         <f>SUM(H5:H16)</f>
-        <v>141.96</v>
+        <v>131.04</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="10"/>
@@ -1107,619 +1192,2014 @@
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <f>ROUND(0.3*Calculos!C4,0)</f>
         <v>27</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="4">
         <v>0.3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <f>ROUNDUP(D21*E21,0)</f>
         <v>9</v>
       </c>
-      <c r="G21" s="3">
-        <v>24.4</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="2">
+        <v>25.45</v>
+      </c>
+      <c r="H21" s="2">
         <f>F21*G21</f>
-        <v>219.6</v>
+        <v>229.04999999999998</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <f>ROUND(0.3*Calculos!C5,0)</f>
         <v>53</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="4">
         <v>0.3</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <f t="shared" ref="F22:F32" si="2">ROUNDUP(D22*E22,0)</f>
         <v>16</v>
       </c>
-      <c r="G22" s="3">
-        <v>24.4</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="2">
+        <v>25.45</v>
+      </c>
+      <c r="H22" s="2">
         <f t="shared" ref="H22:H32" si="3">F22*G22</f>
-        <v>390.4</v>
+        <v>407.2</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <f>ROUND(0.3*Calculos!C6,0)</f>
         <v>12</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="4">
         <v>0.3</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="G23" s="3">
-        <v>24.4</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="G23" s="2">
+        <v>25.45</v>
+      </c>
+      <c r="H23" s="2">
         <f t="shared" si="3"/>
-        <v>97.6</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <f>ROUND(0.3*Calculos!C7,0)</f>
         <v>9</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="4">
         <v>0.3</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G24" s="3">
-        <v>24.4</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="2">
+        <v>25.45</v>
+      </c>
+      <c r="H24" s="2">
         <f t="shared" si="3"/>
-        <v>73.199999999999989</v>
+        <v>76.349999999999994</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <f>ROUND(0.3*Calculos!C8,0)</f>
         <v>6</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="4">
         <v>0.3</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G25" s="3">
-        <v>24.4</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25" s="2">
+        <v>25.45</v>
+      </c>
+      <c r="H25" s="2">
         <f t="shared" si="3"/>
-        <v>48.8</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <f>ROUND(0.3*Calculos!C9,0)</f>
         <v>3</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="4">
         <v>0.25</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G26" s="3">
-        <v>24.4</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="G26" s="2">
+        <v>25.45</v>
+      </c>
+      <c r="H26" s="2">
         <f t="shared" si="3"/>
-        <v>24.4</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <f>ROUND(0.3*Calculos!C10,0)</f>
         <v>15</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="4">
         <v>0.3</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="G27" s="3">
-        <v>24.4</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="2">
+        <v>25.45</v>
+      </c>
+      <c r="H27" s="2">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>127.25</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <f>ROUND(0.3*Calculos!C11,0)</f>
         <v>47</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="4">
         <v>0.3</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G28" s="3">
-        <v>24.4</v>
-      </c>
-      <c r="H28" s="3">
+      <c r="G28" s="2">
+        <v>25.45</v>
+      </c>
+      <c r="H28" s="2">
         <f t="shared" si="3"/>
-        <v>366</v>
+        <v>381.75</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <f>ROUND(0.3*Calculos!C12,0)</f>
         <v>346</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="4">
         <v>0.3</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="G29" s="3">
-        <v>24.4</v>
-      </c>
-      <c r="H29" s="3">
+      <c r="G29" s="2">
+        <v>25.45</v>
+      </c>
+      <c r="H29" s="2">
         <f t="shared" si="3"/>
-        <v>2537.6</v>
+        <v>2646.7999999999997</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <f>ROUND(0.3*Calculos!C13,0)</f>
         <v>293</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="4">
         <v>0.3</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="G30" s="3">
-        <v>24.4</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="G30" s="2">
+        <v>25.45</v>
+      </c>
+      <c r="H30" s="2">
         <f t="shared" si="3"/>
-        <v>2147.1999999999998</v>
+        <v>2239.6</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <f>ROUND(0.3*Calculos!C14,0)</f>
         <v>152</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="4">
         <v>0.25</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="G31" s="3">
-        <v>24.4</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="G31" s="2">
+        <v>25.45</v>
+      </c>
+      <c r="H31" s="2">
         <f t="shared" si="3"/>
-        <v>927.19999999999993</v>
+        <v>967.1</v>
       </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <f>ROUND(0.3*Calculos!C15,0)</f>
         <v>135</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="4">
         <v>0.15</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="G32" s="3">
-        <v>24.4</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="G32" s="2">
+        <v>25.45</v>
+      </c>
+      <c r="H32" s="2">
         <f t="shared" si="3"/>
-        <v>512.4</v>
+        <v>534.44999999999993</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <f>SUM(D21:D32)</f>
         <v>1098</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2">
         <f>SUM(H21:H32)</f>
-        <v>7466.3999999999987</v>
+        <v>7787.7</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2">
+        <f>ROUND(0.2*Calculos!C4,0)</f>
+        <v>18</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F37" s="2">
+        <f>ROUNDUP(D37*E37,0)</f>
+        <v>4</v>
+      </c>
+      <c r="G37" s="2">
+        <v>241.67</v>
+      </c>
+      <c r="H37" s="2">
+        <f>G37*F37</f>
+        <v>966.68</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2">
+        <f>ROUND(0.2*Calculos!C5,0)</f>
+        <v>35</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" ref="F38:F48" si="4">ROUNDUP(D38*E38,0)</f>
+        <v>7</v>
+      </c>
+      <c r="G38" s="2">
+        <v>241.67</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" ref="H38:H48" si="5">G38*F38</f>
+        <v>1691.6899999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2">
+        <f>ROUND(0.2*Calculos!C6,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G39" s="2">
+        <v>241.67</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="5"/>
+        <v>483.34</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2">
+        <f>ROUND(0.2*Calculos!C7,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G40" s="2">
+        <v>241.67</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="5"/>
+        <v>483.34</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="2">
+        <f>ROUND(0.2*Calculos!C8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>241.67</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="5"/>
+        <v>241.67</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2">
+        <f>ROUND(0.2*Calculos!C9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>241.67</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="5"/>
+        <v>241.67</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="2">
+        <f>ROUND(0.2*Calculos!C10,0)</f>
+        <v>10</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G43" s="2">
+        <v>241.67</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="5"/>
+        <v>483.34</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="2">
+        <f>ROUND(0.2*Calculos!C11,0)</f>
+        <v>31</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G44" s="2">
+        <v>241.67</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="5"/>
+        <v>1691.6899999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2">
+        <f>ROUND(0.2*Calculos!C12,0)</f>
+        <v>231</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="G45" s="2">
+        <v>241.67</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="5"/>
+        <v>5800.08</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="2">
+        <f>ROUND(0.2*Calculos!C13,0)</f>
+        <v>195</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="G46" s="2">
+        <v>241.67</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="5"/>
+        <v>9425.1299999999992</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2">
+        <f>ROUND(0.2*Calculos!C14,0)</f>
+        <v>101</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G47" s="2">
+        <v>241.67</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="5"/>
+        <v>1450.02</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="2">
+        <f>ROUND(0.2*Calculos!C15,0)</f>
+        <v>90</v>
+      </c>
+      <c r="E48" s="4">
         <v>0</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
-    </row>
-    <row r="36" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C36" s="3" t="s">
+      <c r="F48" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>241.67</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2">
+        <f>SUM(H37:H47)</f>
+        <v>22958.649999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C51" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H52" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="3" t="s">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="3" t="s">
+      <c r="D53" s="2">
+        <f>ROUND(0.1*Calculos!C4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F53" s="2">
+        <f>ROUNDUP(D53*E53,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="H53" s="2">
+        <f>F53*G53</f>
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C39" s="4" t="s">
+      <c r="D54" s="2">
+        <f>ROUND(0.1*Calculos!C5,0)</f>
+        <v>18</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" ref="F54:F64" si="6">ROUNDUP(D54*E54,0)</f>
+        <v>3</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" ref="H54:H64" si="7">F54*G54</f>
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="3" t="s">
+      <c r="D55" s="2">
+        <f>ROUND(0.1*Calculos!C6,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="7"/>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="3" t="s">
+      <c r="D56" s="2">
+        <f>ROUND(0.1*Calculos!C7,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="7"/>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="3" t="s">
+      <c r="D57" s="2">
+        <f>ROUND(0.1*Calculos!C8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="7"/>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="3" t="s">
+      <c r="D58" s="2">
+        <f>ROUND(0.1*Calculos!C9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="7"/>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C59" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
+      <c r="D59" s="2">
+        <f>ROUND(0.1*Calculos!C10,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="7"/>
+        <v>1.67</v>
+      </c>
     </row>
     <row r="60" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="2">
+        <f>ROUND(0.1*Calculos!C11,0)</f>
+        <v>16</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="7"/>
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="2">
+        <f>ROUND(0.1*Calculos!C12,0)</f>
+        <v>115</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="7"/>
+        <v>30.06</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="2">
+        <f>ROUND(0.1*Calculos!C13,0)</f>
+        <v>98</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="7"/>
+        <v>25.049999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2">
+        <f>ROUND(0.1*Calculos!C14,0)</f>
+        <v>51</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="7"/>
+        <v>18.369999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="2">
+        <f>ROUND(0.1*Calculos!C15,0)</f>
+        <v>45</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2">
+        <f>SUM(H53:H64)</f>
+        <v>95.19</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C67" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F68" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H60" s="4" t="s">
+      <c r="H68" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C61" s="3" t="s">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C62" s="3" t="s">
+      <c r="D69" s="2">
+        <f>ROUND(0.15*Calculos!C4,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F69" s="2">
+        <f>ROUNDUP(D69*E69,0)</f>
+        <v>3</v>
+      </c>
+      <c r="G69" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H69" s="2">
+        <f>G69*F69</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C63" s="4" t="s">
+      <c r="D70" s="2">
+        <f>ROUND(0.15*Calculos!C5,0)</f>
+        <v>26</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" ref="F70:F80" si="8">ROUNDUP(D70*E70,0)</f>
+        <v>6</v>
+      </c>
+      <c r="G70" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" ref="H70:H80" si="9">G70*F70</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C64" s="3" t="s">
+      <c r="D71" s="2">
+        <f>ROUND(0.15*Calculos!C6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G71" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H71" s="2">
+        <f t="shared" si="9"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C72" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C65" s="3" t="s">
+      <c r="D72" s="2">
+        <f>ROUND(0.15*Calculos!C7,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G72" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H72" s="2">
+        <f t="shared" si="9"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C66" s="3" t="s">
+      <c r="D73" s="2">
+        <f>ROUND(0.15*Calculos!C8,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G73" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H73" s="2">
+        <f t="shared" si="9"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C74" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C67" s="3" t="s">
+      <c r="D74" s="2">
+        <f>ROUND(0.15*Calculos!C9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G74" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" si="9"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C68" s="4" t="s">
+      <c r="D75" s="2">
+        <f>ROUND(0.15*Calculos!C10,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G75" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H75" s="2">
+        <f t="shared" si="9"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C76" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C69" s="3" t="s">
+      <c r="D76" s="2">
+        <f>ROUND(0.15*Calculos!C11,0)</f>
+        <v>23</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G76" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H76" s="2">
+        <f t="shared" si="9"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C70" s="3" t="s">
+      <c r="D77" s="2">
+        <f>ROUND(0.15*Calculos!C12,0)</f>
+        <v>173</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="G77" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H77" s="2">
+        <f t="shared" si="9"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C71" s="4" t="s">
+      <c r="D78" s="2">
+        <f>ROUND(0.15*Calculos!C13,0)</f>
+        <v>146</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="G78" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H78" s="2">
+        <f t="shared" si="9"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C79" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C72" s="3" t="s">
+      <c r="D79" s="2">
+        <f>ROUND(0.15*Calculos!C14,0)</f>
+        <v>76</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="G79" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H79" s="2">
+        <f t="shared" si="9"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C80" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+      <c r="D80" s="2">
+        <f>ROUND(0.15*Calculos!C15,0)</f>
+        <v>68</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H80" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C81" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2">
+        <f>SUM(H69:H80)</f>
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C83" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="2">
+        <f>ROUND(0.15*Calculos!C4,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F85" s="2">
+        <f>ROUNDUP(D85*E85,0)</f>
+        <v>5</v>
+      </c>
+      <c r="G85" s="2">
+        <v>39</v>
+      </c>
+      <c r="H85" s="2">
+        <f>G85*F85</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="2">
+        <f>ROUND(0.15*Calculos!C5,0)</f>
+        <v>26</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" ref="F86:F96" si="10">ROUNDUP(D86*E86,0)</f>
+        <v>8</v>
+      </c>
+      <c r="G86" s="2">
+        <v>39</v>
+      </c>
+      <c r="H86" s="2">
+        <f t="shared" ref="H86:H96" si="11">G86*F86</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C87" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2">
+        <f>ROUND(0.15*Calculos!C6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G87" s="2">
+        <v>39</v>
+      </c>
+      <c r="H87" s="2">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="2">
+        <f>ROUND(0.15*Calculos!C7,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G88" s="2">
+        <v>39</v>
+      </c>
+      <c r="H88" s="2">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="2">
+        <f>ROUND(0.15*Calculos!C8,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G89" s="2">
+        <v>39</v>
+      </c>
+      <c r="H89" s="2">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="2">
+        <f>ROUND(0.15*Calculos!C9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G90" s="2">
+        <v>39</v>
+      </c>
+      <c r="H90" s="2">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="2">
+        <f>ROUND(0.15*Calculos!C10,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F91" s="2">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="G91" s="2">
+        <v>39</v>
+      </c>
+      <c r="H91" s="2">
+        <f t="shared" si="11"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="2">
+        <f>ROUND(0.15*Calculos!C11,0)</f>
+        <v>23</v>
+      </c>
+      <c r="E92" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F92" s="2">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="G92" s="2">
+        <v>39</v>
+      </c>
+      <c r="H92" s="2">
+        <f t="shared" si="11"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C93" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2">
+        <f>ROUND(0.15*Calculos!C12,0)</f>
+        <v>173</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F93" s="2">
+        <f t="shared" si="10"/>
+        <v>52</v>
+      </c>
+      <c r="G93" s="2">
+        <v>39</v>
+      </c>
+      <c r="H93" s="2">
+        <f t="shared" si="11"/>
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="2">
+        <f>ROUND(0.15*Calculos!C13,0)</f>
+        <v>146</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F94" s="2">
+        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="G94" s="2">
+        <v>39</v>
+      </c>
+      <c r="H94" s="2">
+        <f t="shared" si="11"/>
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="2">
+        <f>ROUND(0.15*Calculos!C14,0)</f>
+        <v>76</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F95" s="2">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="G95" s="2">
+        <v>39</v>
+      </c>
+      <c r="H95" s="2">
+        <f t="shared" si="11"/>
+        <v>897</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="2">
+        <f>ROUND(0.15*Calculos!C15,0)</f>
+        <v>68</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="F96" s="2">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="G96" s="2">
+        <v>39</v>
+      </c>
+      <c r="H96" s="2">
+        <f t="shared" si="11"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C97" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2">
+        <f>SUM(H85:H96)</f>
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C101" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" s="2">
+        <v>652800</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="M102" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N102" s="14"/>
+    </row>
+    <row r="103" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C103" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="7"/>
+      <c r="M103" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N103" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M104" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="N104" s="15">
+        <f>H17</f>
+        <v>131.04</v>
+      </c>
+    </row>
+    <row r="105" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="2">
+        <f>ROUND(0.15*Calculos!C4,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F105" s="2">
+        <f>ROUNDUP(D105*E105,0)</f>
+        <v>4</v>
+      </c>
+      <c r="G105" s="2">
+        <v>39</v>
+      </c>
+      <c r="H105" s="2">
+        <f>G105*F105</f>
+        <v>156</v>
+      </c>
+      <c r="M105" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="N105" s="15">
+        <f>H33</f>
+        <v>7787.7</v>
+      </c>
+    </row>
+    <row r="106" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="2">
+        <f>ROUND(0.15*Calculos!C5,0)</f>
+        <v>26</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" ref="F106:F116" si="12">ROUNDUP(D106*E106,0)</f>
+        <v>7</v>
+      </c>
+      <c r="G106" s="2">
+        <v>39</v>
+      </c>
+      <c r="H106" s="2">
+        <f t="shared" ref="H106:H116" si="13">G106*F106</f>
+        <v>273</v>
+      </c>
+      <c r="M106" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N106" s="15">
+        <f>H49</f>
+        <v>22958.649999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C107" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2">
+        <f>ROUND(0.15*Calculos!C6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G107" s="2">
+        <v>39</v>
+      </c>
+      <c r="H107" s="2">
+        <f t="shared" si="13"/>
+        <v>78</v>
+      </c>
+      <c r="M107" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N107" s="15">
+        <f>H65</f>
+        <v>95.19</v>
+      </c>
+    </row>
+    <row r="108" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="2">
+        <f>ROUND(0.15*Calculos!C7,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G108" s="2">
+        <v>39</v>
+      </c>
+      <c r="H108" s="2">
+        <f t="shared" si="13"/>
+        <v>78</v>
+      </c>
+      <c r="M108" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N108" s="15">
+        <f>H97</f>
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="109" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="2">
+        <f>ROUND(0.15*Calculos!C8,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G109" s="2">
+        <v>39</v>
+      </c>
+      <c r="H109" s="2">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="M109" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N109" s="15">
+        <f>H81</f>
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="110" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="2">
+        <f>ROUND(0.15*Calculos!C9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G110" s="2">
+        <v>39</v>
+      </c>
+      <c r="H110" s="2">
+        <f t="shared" si="13"/>
+        <v>39</v>
+      </c>
+      <c r="M110" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N110" s="15">
+        <f>SUM(N104:N109)</f>
+        <v>367173.58</v>
+      </c>
+    </row>
+    <row r="111" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="2">
+        <f>ROUND(0.15*Calculos!C10,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G111" s="2">
+        <v>39</v>
+      </c>
+      <c r="H111" s="2">
+        <f t="shared" si="13"/>
+        <v>78</v>
+      </c>
+      <c r="M111" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N111" s="15">
+        <f>H117</f>
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="112" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C112" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="2">
+        <f>ROUND(0.15*Calculos!C11,0)</f>
+        <v>23</v>
+      </c>
+      <c r="E112" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="G112" s="2">
+        <v>39</v>
+      </c>
+      <c r="H112" s="2">
+        <f t="shared" si="13"/>
+        <v>234</v>
+      </c>
+      <c r="M112" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N112" s="15">
+        <f>D101</f>
+        <v>652800</v>
+      </c>
+    </row>
+    <row r="113" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="2">
+        <f>ROUND(0.15*Calculos!C12,0)</f>
+        <v>173</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="12"/>
+        <v>44</v>
+      </c>
+      <c r="G113" s="2">
+        <v>39</v>
+      </c>
+      <c r="H113" s="2">
+        <f t="shared" si="13"/>
+        <v>1716</v>
+      </c>
+      <c r="M113" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N113" s="17">
+        <f>SUM(N110:N112)</f>
+        <v>1024848.5800000001</v>
+      </c>
+    </row>
+    <row r="114" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="2">
+        <f>ROUND(0.15*Calculos!C13,0)</f>
+        <v>146</v>
+      </c>
+      <c r="E114" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F114" s="2">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="G114" s="2">
+        <v>39</v>
+      </c>
+      <c r="H114" s="2">
+        <f t="shared" si="13"/>
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="115" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="2">
+        <f>ROUND(0.15*Calculos!C14,0)</f>
+        <v>76</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="G115" s="2">
+        <v>39</v>
+      </c>
+      <c r="H115" s="2">
+        <f t="shared" si="13"/>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="116" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="2">
+        <f>ROUND(0.15*Calculos!C15,0)</f>
+        <v>68</v>
+      </c>
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+      <c r="F116" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="2">
+        <v>39</v>
+      </c>
+      <c r="H116" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C117" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2">
+        <f>SUM(H105:H116)</f>
+        <v>4875</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C83:H83"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C35:H35"/>

--- a/excel_anchoBanda.xlsx
+++ b/excel_anchoBanda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LANproy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464279B6-02C0-428D-BFE5-7ACD5C501AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583EF1C9-73FE-4A3C-B6F3-49A28B930626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FF157483-CDBB-4475-8B97-F9AC9224C00A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="46">
   <si>
     <t>Correo</t>
   </si>
@@ -169,13 +169,19 @@
   </si>
   <si>
     <t>Total a usar</t>
+  </si>
+  <si>
+    <t>Llamadas Mensajería</t>
+  </si>
+  <si>
+    <t>Uso WiFi por usuario [Kbps]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +210,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -219,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -279,11 +306,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB4C6E7"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFB4C6E7"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF8EAADB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFB4C6E7"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF8EAADB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFB4C6E7"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB4C6E7"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF8EAADB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB4C6E7"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB4C6E7"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFB4C6E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFB4C6E7"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFB4C6E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -293,6 +391,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -302,10 +406,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -314,20 +418,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -344,9 +471,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -384,7 +511,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -490,7 +617,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -632,7 +759,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -837,10 +964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F585D46-B0E9-4A67-82FF-9874BCBB6983}">
-  <dimension ref="C3:N117"/>
+  <dimension ref="C3:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110"/>
+    <sheetView tabSelected="1" topLeftCell="D96" zoomScale="74" workbookViewId="0">
+      <selection activeCell="M102" sqref="M102:N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,35 +980,35 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
       <c r="K3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="K4">
@@ -890,306 +1017,306 @@
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="17">
         <f>ROUND(0.2*Calculos!C4,0)</f>
         <v>18</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="19">
         <v>0.25</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="17">
         <f>ROUNDUP(D5*E5,0)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="17">
         <v>0.78</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="17">
         <f>F5*G5</f>
         <v>3.9000000000000004</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="17">
         <f>ROUND(0.2*Calculos!C5,0)</f>
         <v>35</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="19">
         <v>0.25</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="17">
         <f t="shared" ref="F6:F16" si="0">ROUNDUP(D6*E6,0)</f>
         <v>9</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="17">
         <v>0.78</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="17">
         <f t="shared" ref="H6:H16" si="1">F6*G6</f>
         <v>7.0200000000000005</v>
       </c>
     </row>
     <row r="7" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="17">
         <f>ROUND(0.2*Calculos!C6,0)</f>
         <v>8</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="19">
         <v>0.25</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="17">
         <v>0.78</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="17">
         <f t="shared" si="1"/>
         <v>1.56</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="17">
         <f>ROUND(0.2*Calculos!C7,0)</f>
         <v>6</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="19">
         <v>0.25</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="17">
         <v>0.78</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="17">
         <f t="shared" si="1"/>
         <v>1.56</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="17">
         <f>ROUND(0.2*Calculos!C8,0)</f>
         <v>4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="19">
         <v>0.25</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="17">
         <v>0.78</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="17">
         <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="17">
         <f>ROUND(0.2*Calculos!C9,0)</f>
         <v>2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="19">
         <v>0.15</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="17">
         <v>0.78</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="17">
         <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="17">
         <f>ROUND(0.2*Calculos!C10,0)</f>
         <v>10</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="19">
         <v>0.25</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="17">
         <v>0.78</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="17">
         <f t="shared" si="1"/>
         <v>2.34</v>
       </c>
     </row>
-    <row r="12" spans="3:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C12" s="3" t="s">
+    <row r="12" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="17">
         <f>ROUND(0.2*Calculos!C11,0)</f>
         <v>31</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="19">
         <v>0.25</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="17">
         <v>0.78</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="17">
         <f t="shared" si="1"/>
         <v>6.24</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="17">
         <f>ROUND(0.2*Calculos!C12,0)</f>
         <v>231</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="19">
         <v>0.25</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="17">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="17">
         <v>0.78</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="17">
         <f t="shared" si="1"/>
         <v>45.24</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="17">
         <f>ROUND(0.2*Calculos!C13,0)</f>
         <v>195</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="19">
         <v>0.25</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="17">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="17">
         <v>0.78</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="17">
         <f t="shared" si="1"/>
         <v>38.22</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="17">
         <f>ROUND(0.2*Calculos!C14,0)</f>
         <v>101</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="19">
         <v>0.15</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="17">
         <v>0.78</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="17">
         <f t="shared" si="1"/>
         <v>12.48</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="17">
         <f>ROUND(0.2*Calculos!C15,0)</f>
         <v>90</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="19">
         <v>0.15</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="17">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="17">
         <v>0.78</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="17">
         <f t="shared" si="1"/>
         <v>10.92</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="17">
         <f>SUM(D5:D16)</f>
         <v>731</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17">
         <f>SUM(H5:H16)</f>
         <v>131.04</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
@@ -1504,14 +1631,14 @@
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="7"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C36" s="2" t="s">
@@ -1823,14 +1950,14 @@
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="7"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="52" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
@@ -2142,14 +2269,14 @@
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="7"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="11"/>
     </row>
     <row r="68" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C68" s="2" t="s">
@@ -2461,14 +2588,14 @@
       </c>
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="7"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="11"/>
     </row>
     <row r="84" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C84" s="2" t="s">
@@ -2785,7 +2912,7 @@
       </c>
     </row>
     <row r="101" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D101" s="2">
@@ -2793,24 +2920,24 @@
       </c>
     </row>
     <row r="102" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="M102" s="13" t="s">
+      <c r="M102" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="N102" s="14"/>
+      <c r="N102" s="13"/>
     </row>
     <row r="103" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
-      <c r="H103" s="7"/>
-      <c r="M103" s="15" t="s">
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="11"/>
+      <c r="M103" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N103" s="15" t="s">
+      <c r="N103" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2833,10 +2960,10 @@
       <c r="H104" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M104" s="16" t="s">
+      <c r="M104" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N104" s="15">
+      <c r="N104" s="6">
         <f>H17</f>
         <v>131.04</v>
       </c>
@@ -2857,16 +2984,16 @@
         <v>4</v>
       </c>
       <c r="G105" s="2">
-        <v>39</v>
+        <v>87.2</v>
       </c>
       <c r="H105" s="2">
         <f>G105*F105</f>
-        <v>156</v>
-      </c>
-      <c r="M105" s="15" t="s">
+        <v>348.8</v>
+      </c>
+      <c r="M105" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N105" s="15">
+      <c r="N105" s="6">
         <f>H33</f>
         <v>7787.7</v>
       </c>
@@ -2887,16 +3014,16 @@
         <v>7</v>
       </c>
       <c r="G106" s="2">
-        <v>39</v>
+        <v>87.2</v>
       </c>
       <c r="H106" s="2">
         <f t="shared" ref="H106:H116" si="13">G106*F106</f>
-        <v>273</v>
-      </c>
-      <c r="M106" s="15" t="s">
+        <v>610.4</v>
+      </c>
+      <c r="M106" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N106" s="15">
+      <c r="N106" s="6">
         <f>H49</f>
         <v>22958.649999999998</v>
       </c>
@@ -2917,16 +3044,16 @@
         <v>2</v>
       </c>
       <c r="G107" s="2">
-        <v>39</v>
+        <v>87.2</v>
       </c>
       <c r="H107" s="2">
         <f t="shared" si="13"/>
-        <v>78</v>
-      </c>
-      <c r="M107" s="15" t="s">
+        <v>174.4</v>
+      </c>
+      <c r="M107" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N107" s="15">
+      <c r="N107" s="6">
         <f>H65</f>
         <v>95.19</v>
       </c>
@@ -2947,16 +3074,16 @@
         <v>2</v>
       </c>
       <c r="G108" s="2">
-        <v>39</v>
+        <v>87.2</v>
       </c>
       <c r="H108" s="2">
         <f t="shared" si="13"/>
-        <v>78</v>
-      </c>
-      <c r="M108" s="15" t="s">
+        <v>174.4</v>
+      </c>
+      <c r="M108" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N108" s="15">
+      <c r="N108" s="6">
         <f>H97</f>
         <v>6201</v>
       </c>
@@ -2977,16 +3104,16 @@
         <v>1</v>
       </c>
       <c r="G109" s="2">
-        <v>39</v>
+        <v>87.2</v>
       </c>
       <c r="H109" s="2">
         <f t="shared" si="13"/>
-        <v>39</v>
-      </c>
-      <c r="M109" s="15" t="s">
+        <v>87.2</v>
+      </c>
+      <c r="M109" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N109" s="15">
+      <c r="N109" s="6">
         <f>H81</f>
         <v>330000</v>
       </c>
@@ -3007,16 +3134,16 @@
         <v>1</v>
       </c>
       <c r="G110" s="2">
-        <v>39</v>
+        <v>87.2</v>
       </c>
       <c r="H110" s="2">
         <f t="shared" si="13"/>
-        <v>39</v>
-      </c>
-      <c r="M110" s="15" t="s">
+        <v>87.2</v>
+      </c>
+      <c r="M110" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N110" s="15">
+      <c r="N110" s="6">
         <f>SUM(N104:N109)</f>
         <v>367173.58</v>
       </c>
@@ -3037,18 +3164,18 @@
         <v>2</v>
       </c>
       <c r="G111" s="2">
-        <v>39</v>
+        <v>87.2</v>
       </c>
       <c r="H111" s="2">
         <f t="shared" si="13"/>
-        <v>78</v>
-      </c>
-      <c r="M111" s="15" t="s">
+        <v>174.4</v>
+      </c>
+      <c r="M111" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N111" s="15">
+      <c r="N111" s="6">
         <f>H117</f>
-        <v>4875</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="112" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -3067,21 +3194,21 @@
         <v>6</v>
       </c>
       <c r="G112" s="2">
-        <v>39</v>
+        <v>87.2</v>
       </c>
       <c r="H112" s="2">
         <f t="shared" si="13"/>
-        <v>234</v>
-      </c>
-      <c r="M112" s="15" t="s">
+        <v>523.20000000000005</v>
+      </c>
+      <c r="M112" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N112" s="15">
+      <c r="N112" s="6">
         <f>D101</f>
         <v>652800</v>
       </c>
     </row>
-    <row r="113" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C113" s="2" t="s">
         <v>15</v>
       </c>
@@ -3097,21 +3224,21 @@
         <v>44</v>
       </c>
       <c r="G113" s="2">
-        <v>39</v>
+        <v>87.2</v>
       </c>
       <c r="H113" s="2">
         <f t="shared" si="13"/>
-        <v>1716</v>
-      </c>
-      <c r="M113" s="17" t="s">
+        <v>3836.8</v>
+      </c>
+      <c r="M113" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N113" s="17">
+      <c r="N113" s="8">
         <f>SUM(N110:N112)</f>
-        <v>1024848.5800000001</v>
-      </c>
-    </row>
-    <row r="114" spans="3:14" x14ac:dyDescent="0.3">
+        <v>1030873.5800000001</v>
+      </c>
+    </row>
+    <row r="114" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C114" s="2" t="s">
         <v>16</v>
       </c>
@@ -3127,14 +3254,14 @@
         <v>37</v>
       </c>
       <c r="G114" s="2">
-        <v>39</v>
+        <v>87.2</v>
       </c>
       <c r="H114" s="2">
         <f t="shared" si="13"/>
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="115" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3226.4</v>
+      </c>
+    </row>
+    <row r="115" spans="3:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C115" s="3" t="s">
         <v>17</v>
       </c>
@@ -3150,14 +3277,14 @@
         <v>19</v>
       </c>
       <c r="G115" s="2">
-        <v>39</v>
+        <v>87.2</v>
       </c>
       <c r="H115" s="2">
         <f t="shared" si="13"/>
-        <v>741</v>
-      </c>
-    </row>
-    <row r="116" spans="3:14" x14ac:dyDescent="0.3">
+        <v>1656.8</v>
+      </c>
+    </row>
+    <row r="116" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C116" s="2" t="s">
         <v>18</v>
       </c>
@@ -3173,14 +3300,14 @@
         <v>0</v>
       </c>
       <c r="G116" s="2">
-        <v>39</v>
+        <v>87.2</v>
       </c>
       <c r="H116" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C117" s="2" t="s">
         <v>31</v>
       </c>
@@ -3190,21 +3317,103 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2">
         <f>SUM(H105:H116)</f>
-        <v>4875</v>
-      </c>
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="123" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="124" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J124" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K124" s="26"/>
+      <c r="L124" s="26"/>
+      <c r="M124" s="26"/>
+      <c r="N124" s="26"/>
+      <c r="O124" s="26"/>
+      <c r="P124" s="26"/>
+      <c r="Q124" s="29"/>
+    </row>
+    <row r="125" spans="3:17" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J125" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K125" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L125" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M125" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N125" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O125" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="P125" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q125" s="27"/>
+    </row>
+    <row r="126" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J126" s="22">
+        <f>G5</f>
+        <v>0.78</v>
+      </c>
+      <c r="K126" s="23">
+        <f>G21</f>
+        <v>25.45</v>
+      </c>
+      <c r="L126" s="23">
+        <f>G37</f>
+        <v>241.67</v>
+      </c>
+      <c r="M126" s="23">
+        <f>G53</f>
+        <v>1.67</v>
+      </c>
+      <c r="N126" s="23">
+        <f>G85</f>
+        <v>39</v>
+      </c>
+      <c r="O126" s="23">
+        <f>G69</f>
+        <v>5000</v>
+      </c>
+      <c r="P126" s="24">
+        <f>SUM(J126:O126)</f>
+        <v>5308.57</v>
+      </c>
+      <c r="Q126" s="27"/>
+    </row>
+    <row r="127" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="J127" s="28"/>
+      <c r="K127" s="28"/>
+      <c r="L127" s="28"/>
+      <c r="M127" s="28"/>
+      <c r="N127" s="28"/>
+      <c r="O127" s="28"/>
+      <c r="P127" s="28"/>
+      <c r="Q127" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="J124:P124"/>
     <mergeCell ref="C103:H103"/>
     <mergeCell ref="M102:N102"/>
     <mergeCell ref="C51:H51"/>
     <mergeCell ref="C67:H67"/>
     <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C35:H35"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3:H17" r:id="rId1" display="Correo" xr:uid="{644CA008-90FC-463F-B1D5-1EA957D10402}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel_anchoBanda.xlsx
+++ b/excel_anchoBanda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LANproy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583EF1C9-73FE-4A3C-B6F3-49A28B930626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFDD722-31A1-4D4B-8E3C-34BB369EA539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FF157483-CDBB-4475-8B97-F9AC9224C00A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FF157483-CDBB-4475-8B97-F9AC9224C00A}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculos" sheetId="2" r:id="rId1"/>
@@ -381,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -397,30 +397,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -441,16 +417,39 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -767,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC606F0E-A34E-4DF6-8A30-C0416036A5E9}">
-  <dimension ref="B3:E15"/>
+  <dimension ref="B3:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -957,6 +956,12 @@
         <v>400</v>
       </c>
     </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f>SUM(C4:C15)</f>
+        <v>3657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -966,7 +971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F585D46-B0E9-4A67-82FF-9874BCBB6983}">
   <dimension ref="C3:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D96" zoomScale="74" workbookViewId="0">
+    <sheetView topLeftCell="D96" zoomScale="74" workbookViewId="0">
       <selection activeCell="M102" sqref="M102:N113"/>
     </sheetView>
   </sheetViews>
@@ -980,35 +985,35 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="K3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="K4">
@@ -1017,306 +1022,306 @@
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="9">
         <f>ROUND(0.2*Calculos!C4,0)</f>
         <v>18</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="11">
         <v>0.25</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="9">
         <f>ROUNDUP(D5*E5,0)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="9">
         <v>0.78</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="9">
         <f>F5*G5</f>
         <v>3.9000000000000004</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="9">
         <f>ROUND(0.2*Calculos!C5,0)</f>
         <v>35</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="11">
         <v>0.25</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="9">
         <f t="shared" ref="F6:F16" si="0">ROUNDUP(D6*E6,0)</f>
         <v>9</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="9">
         <v>0.78</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="9">
         <f t="shared" ref="H6:H16" si="1">F6*G6</f>
         <v>7.0200000000000005</v>
       </c>
     </row>
     <row r="7" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="9">
         <f>ROUND(0.2*Calculos!C6,0)</f>
         <v>8</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="11">
         <v>0.25</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="9">
         <v>0.78</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="9">
         <f t="shared" si="1"/>
         <v>1.56</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="9">
         <f>ROUND(0.2*Calculos!C7,0)</f>
         <v>6</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="11">
         <v>0.25</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="9">
         <v>0.78</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="9">
         <f t="shared" si="1"/>
         <v>1.56</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="9">
         <f>ROUND(0.2*Calculos!C8,0)</f>
         <v>4</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="11">
         <v>0.25</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="9">
         <v>0.78</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="9">
         <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="9">
         <f>ROUND(0.2*Calculos!C9,0)</f>
         <v>2</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="11">
         <v>0.15</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="9">
         <v>0.78</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="9">
         <f t="shared" si="1"/>
         <v>0.78</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="9">
         <f>ROUND(0.2*Calculos!C10,0)</f>
         <v>10</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="11">
         <v>0.25</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="9">
         <v>0.78</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="9">
         <f t="shared" si="1"/>
         <v>2.34</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="9">
         <f>ROUND(0.2*Calculos!C11,0)</f>
         <v>31</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="11">
         <v>0.25</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="9">
         <v>0.78</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="9">
         <f t="shared" si="1"/>
         <v>6.24</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="9">
         <f>ROUND(0.2*Calculos!C12,0)</f>
         <v>231</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="11">
         <v>0.25</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="9">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="9">
         <v>0.78</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="9">
         <f t="shared" si="1"/>
         <v>45.24</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="9">
         <f>ROUND(0.2*Calculos!C13,0)</f>
         <v>195</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="11">
         <v>0.25</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="9">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="9">
         <v>0.78</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="9">
         <f t="shared" si="1"/>
         <v>38.22</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="9">
         <f>ROUND(0.2*Calculos!C14,0)</f>
         <v>101</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="11">
         <v>0.15</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="9">
         <v>0.78</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="9">
         <f t="shared" si="1"/>
         <v>12.48</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="9">
         <f>ROUND(0.2*Calculos!C15,0)</f>
         <v>90</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="11">
         <v>0.15</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="9">
         <v>0.78</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="9">
         <f t="shared" si="1"/>
         <v>10.92</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="9">
         <f>SUM(D5:D16)</f>
         <v>731</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
         <f>SUM(H5:H16)</f>
         <v>131.04</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
@@ -1631,14 +1636,14 @@
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="11"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
     </row>
     <row r="36" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C36" s="2" t="s">
@@ -1950,14 +1955,14 @@
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="11"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="24"/>
     </row>
     <row r="52" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
@@ -2269,14 +2274,14 @@
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="11"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="24"/>
     </row>
     <row r="68" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C68" s="2" t="s">
@@ -2588,14 +2593,14 @@
       </c>
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="11"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="24"/>
     </row>
     <row r="84" spans="3:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C84" s="2" t="s">
@@ -2920,20 +2925,20 @@
       </c>
     </row>
     <row r="102" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="M102" s="12" t="s">
+      <c r="M102" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="N102" s="13"/>
+      <c r="N102" s="28"/>
     </row>
     <row r="103" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="11"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="24"/>
       <c r="M103" s="6" t="s">
         <v>38</v>
       </c>
@@ -3331,72 +3336,70 @@
       <c r="N124" s="26"/>
       <c r="O124" s="26"/>
       <c r="P124" s="26"/>
-      <c r="Q124" s="29"/>
+      <c r="Q124" s="18"/>
     </row>
     <row r="125" spans="3:17" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J125" s="20" t="s">
+      <c r="J125" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K125" s="21" t="s">
+      <c r="K125" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L125" s="21" t="s">
+      <c r="L125" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M125" s="21" t="s">
+      <c r="M125" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N125" s="21" t="s">
+      <c r="N125" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O125" s="21" t="s">
+      <c r="O125" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="P125" s="21" t="s">
+      <c r="P125" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Q125" s="27"/>
     </row>
     <row r="126" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J126" s="22">
+      <c r="J126" s="14">
         <f>G5</f>
         <v>0.78</v>
       </c>
-      <c r="K126" s="23">
+      <c r="K126" s="15">
         <f>G21</f>
         <v>25.45</v>
       </c>
-      <c r="L126" s="23">
+      <c r="L126" s="15">
         <f>G37</f>
         <v>241.67</v>
       </c>
-      <c r="M126" s="23">
+      <c r="M126" s="15">
         <f>G53</f>
         <v>1.67</v>
       </c>
-      <c r="N126" s="23">
+      <c r="N126" s="15">
         <f>G85</f>
         <v>39</v>
       </c>
-      <c r="O126" s="23">
+      <c r="O126" s="15">
         <f>G69</f>
         <v>5000</v>
       </c>
-      <c r="P126" s="24">
+      <c r="P126" s="16">
         <f>SUM(J126:O126)</f>
         <v>5308.57</v>
       </c>
-      <c r="Q126" s="27"/>
     </row>
     <row r="127" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J127" s="28"/>
-      <c r="K127" s="28"/>
-      <c r="L127" s="28"/>
-      <c r="M127" s="28"/>
-      <c r="N127" s="28"/>
-      <c r="O127" s="28"/>
-      <c r="P127" s="28"/>
-      <c r="Q127" s="28"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
